--- a/src/test/resources/vzorek_dat.xlsx
+++ b/src/test/resources/vzorek_dat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Algorithms\Sykora_zadani\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B74B32-EB8B-4A87-BFFA-CED13F609F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DCDB38-5F53-4140-9D49-E46C2E563BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2865" windowWidth="21600" windowHeight="11295" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
   <dimension ref="B1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
